--- a/src/simulator/Book1.xlsx
+++ b/src/simulator/Book1.xlsx
@@ -389,7 +389,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
